--- a/DailyReportTemplate/Templates/DailyReportTemplate.xlsx
+++ b/DailyReportTemplate/Templates/DailyReportTemplate.xlsx
@@ -2674,10 +2674,7 @@
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
       <c r="E5" s="27"/>
-      <c r="F5" s="28" t="str">
-        <f t="shared" ref="F5:F9" si="1">C5</f>
-        <v/>
-      </c>
+      <c r="F5" s="28"/>
       <c r="G5" s="29"/>
       <c r="H5" s="30"/>
       <c r="I5" s="31"/>
@@ -2690,10 +2687,7 @@
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="34"/>
-      <c r="F6" s="35" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="F6" s="35"/>
       <c r="G6" s="36"/>
       <c r="H6" s="37"/>
       <c r="I6" s="38"/>
@@ -2706,10 +2700,7 @@
       <c r="C7" s="40"/>
       <c r="D7" s="41"/>
       <c r="E7" s="42"/>
-      <c r="F7" s="43" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="F7" s="43"/>
       <c r="G7" s="36"/>
       <c r="H7" s="44"/>
       <c r="I7" s="45"/>
@@ -2722,10 +2713,7 @@
       <c r="C8" s="46"/>
       <c r="D8" s="41"/>
       <c r="E8" s="42"/>
-      <c r="F8" s="43" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="F8" s="43"/>
       <c r="G8" s="47"/>
       <c r="H8" s="44"/>
       <c r="I8" s="45"/>
@@ -2738,10 +2726,7 @@
       <c r="C9" s="49"/>
       <c r="D9" s="50"/>
       <c r="E9" s="51"/>
-      <c r="F9" s="52" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="F9" s="52"/>
       <c r="G9" s="47"/>
       <c r="H9" s="44"/>
       <c r="I9" s="45"/>
@@ -2819,10 +2804,7 @@
       <c r="C15" s="63"/>
       <c r="D15" s="26"/>
       <c r="E15" s="27"/>
-      <c r="F15" s="28" t="str">
-        <f t="shared" ref="F15:F23" si="2">C15</f>
-        <v/>
-      </c>
+      <c r="F15" s="28"/>
       <c r="G15" s="60"/>
       <c r="H15" s="64"/>
       <c r="I15" s="65"/>
@@ -2835,10 +2817,7 @@
       <c r="C16" s="66"/>
       <c r="D16" s="66"/>
       <c r="E16" s="34"/>
-      <c r="F16" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="F16" s="35"/>
       <c r="G16" s="47"/>
       <c r="H16" s="37"/>
       <c r="I16" s="38"/>
@@ -2851,10 +2830,7 @@
       <c r="C17" s="41"/>
       <c r="D17" s="41"/>
       <c r="E17" s="42"/>
-      <c r="F17" s="43" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="F17" s="43"/>
       <c r="G17" s="36"/>
       <c r="H17" s="44"/>
       <c r="I17" s="45"/>
@@ -2867,10 +2843,7 @@
       <c r="C18" s="41"/>
       <c r="D18" s="41"/>
       <c r="E18" s="42"/>
-      <c r="F18" s="67" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="F18" s="67"/>
       <c r="G18" s="47"/>
       <c r="H18" s="44"/>
       <c r="I18" s="45"/>
@@ -2883,10 +2856,7 @@
       <c r="C19" s="46"/>
       <c r="D19" s="41"/>
       <c r="E19" s="42"/>
-      <c r="F19" s="43" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="F19" s="43"/>
       <c r="G19" s="47"/>
       <c r="H19" s="44"/>
       <c r="I19" s="45"/>
@@ -2899,10 +2869,7 @@
       <c r="C20" s="68"/>
       <c r="D20" s="41"/>
       <c r="E20" s="42"/>
-      <c r="F20" s="43" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="F20" s="43"/>
       <c r="G20" s="47" t="s">
         <v>21</v>
       </c>
@@ -2917,10 +2884,7 @@
       <c r="C21" s="66"/>
       <c r="D21" s="70"/>
       <c r="E21" s="71"/>
-      <c r="F21" s="72" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="F21" s="72"/>
       <c r="G21" s="47"/>
       <c r="H21" s="44"/>
       <c r="I21" s="45"/>
@@ -2933,10 +2897,7 @@
       <c r="C22" s="74"/>
       <c r="D22" s="75"/>
       <c r="E22" s="76"/>
-      <c r="F22" s="77" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="F22" s="77"/>
       <c r="G22" s="60"/>
       <c r="H22" s="78"/>
       <c r="I22" s="79"/>
@@ -2949,10 +2910,7 @@
       <c r="C23" s="80"/>
       <c r="D23" s="81"/>
       <c r="E23" s="82"/>
-      <c r="F23" s="83" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="F23" s="83"/>
       <c r="G23" s="60"/>
       <c r="H23" s="78"/>
       <c r="I23" s="79"/>
@@ -2978,10 +2936,7 @@
       <c r="C25" s="86"/>
       <c r="D25" s="26"/>
       <c r="E25" s="27"/>
-      <c r="F25" s="28" t="str">
-        <f t="shared" ref="F25:F30" si="3">C25</f>
-        <v/>
-      </c>
+      <c r="F25" s="28"/>
       <c r="G25" s="60"/>
       <c r="H25" s="64"/>
       <c r="I25" s="65"/>
@@ -2994,10 +2949,7 @@
       <c r="C26" s="87"/>
       <c r="D26" s="33"/>
       <c r="E26" s="34"/>
-      <c r="F26" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="F26" s="35"/>
       <c r="G26" s="47"/>
       <c r="H26" s="37"/>
       <c r="I26" s="38"/>
@@ -3010,10 +2962,7 @@
       <c r="C27" s="46"/>
       <c r="D27" s="41"/>
       <c r="E27" s="42"/>
-      <c r="F27" s="43" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="F27" s="43"/>
       <c r="G27" s="36"/>
       <c r="H27" s="44"/>
       <c r="I27" s="45"/>
@@ -3026,10 +2975,7 @@
       <c r="C28" s="46"/>
       <c r="D28" s="41"/>
       <c r="E28" s="42"/>
-      <c r="F28" s="43" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="F28" s="43"/>
       <c r="G28" s="88"/>
       <c r="H28" s="44"/>
       <c r="I28" s="45"/>
@@ -3042,10 +2988,7 @@
       <c r="C29" s="54"/>
       <c r="D29" s="41"/>
       <c r="E29" s="42"/>
-      <c r="F29" s="43" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="F29" s="43"/>
       <c r="G29" s="36"/>
       <c r="H29" s="44"/>
       <c r="I29" s="45"/>
@@ -3058,10 +3001,7 @@
       <c r="C30" s="46"/>
       <c r="D30" s="41"/>
       <c r="E30" s="42"/>
-      <c r="F30" s="43" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="F30" s="43"/>
       <c r="G30" s="36"/>
       <c r="H30" s="44"/>
       <c r="I30" s="45"/>
@@ -3098,10 +3038,7 @@
       <c r="C33" s="63"/>
       <c r="D33" s="26"/>
       <c r="E33" s="27"/>
-      <c r="F33" s="28" t="str">
-        <f t="shared" ref="F33:F37" si="4">C33</f>
-        <v/>
-      </c>
+      <c r="F33" s="28"/>
       <c r="G33" s="60"/>
       <c r="H33" s="95"/>
       <c r="I33" s="96"/>
@@ -3114,10 +3051,7 @@
       <c r="C34" s="97"/>
       <c r="D34" s="98"/>
       <c r="E34" s="99"/>
-      <c r="F34" s="100" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="F34" s="100"/>
       <c r="G34" s="85"/>
       <c r="H34" s="101"/>
       <c r="I34" s="102"/>
@@ -3130,10 +3064,7 @@
       <c r="C35" s="103"/>
       <c r="D35" s="104"/>
       <c r="E35" s="105"/>
-      <c r="F35" s="106" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="F35" s="106"/>
       <c r="G35" s="85"/>
       <c r="H35" s="107"/>
       <c r="I35" s="108"/>
@@ -3146,10 +3077,7 @@
       <c r="C36" s="103"/>
       <c r="D36" s="104"/>
       <c r="E36" s="105"/>
-      <c r="F36" s="106" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="F36" s="106"/>
       <c r="G36" s="109"/>
       <c r="H36" s="107"/>
       <c r="I36" s="108"/>
@@ -3162,10 +3090,7 @@
       <c r="C37" s="103"/>
       <c r="D37" s="104"/>
       <c r="E37" s="105"/>
-      <c r="F37" s="106" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="F37" s="106"/>
       <c r="G37" s="111"/>
       <c r="H37" s="112"/>
       <c r="I37" s="113"/>
@@ -3219,25 +3144,19 @@
       </c>
       <c r="C40" s="123"/>
       <c r="D40" s="123"/>
-      <c r="E40" s="124" t="str">
-        <f t="shared" ref="E40:F40" si="5">C40</f>
-        <v/>
-      </c>
-      <c r="F40" s="125" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="E40" s="124"/>
+      <c r="F40" s="125"/>
       <c r="G40" s="126"/>
       <c r="H40" s="127">
         <f>SUM(H41:H44)</f>
         <v>0</v>
       </c>
       <c r="I40" s="128">
-        <f t="shared" ref="I40:I54" si="7">H40</f>
+        <f t="shared" ref="I40:I54" si="1">H40</f>
         <v>0</v>
       </c>
       <c r="K40" s="129">
-        <f t="shared" ref="K40:K54" si="8">F40-I40</f>
+        <f t="shared" ref="K40:K54" si="2">F40-I40</f>
         <v>0</v>
       </c>
     </row>
@@ -3248,25 +3167,19 @@
       </c>
       <c r="C41" s="46"/>
       <c r="D41" s="46"/>
-      <c r="E41" s="41" t="str">
-        <f t="shared" ref="E41:F41" si="6">C41</f>
-        <v/>
-      </c>
-      <c r="F41" s="131" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="E41" s="41"/>
+      <c r="F41" s="131"/>
       <c r="G41" s="47"/>
       <c r="H41" s="132" t="str">
-        <f t="shared" ref="H41:H54" si="10">D41</f>
+        <f t="shared" ref="H41:H54" si="3">D41</f>
         <v/>
       </c>
       <c r="I41" s="133" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K41" s="134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3277,25 +3190,19 @@
       </c>
       <c r="C42" s="46"/>
       <c r="D42" s="46"/>
-      <c r="E42" s="41" t="str">
-        <f t="shared" ref="E42:F42" si="9">C42</f>
-        <v/>
-      </c>
-      <c r="F42" s="131" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
+      <c r="E42" s="41"/>
+      <c r="F42" s="131"/>
       <c r="G42" s="47"/>
       <c r="H42" s="135" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I42" s="133" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K42" s="134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3306,25 +3213,19 @@
       </c>
       <c r="C43" s="41"/>
       <c r="D43" s="41"/>
-      <c r="E43" s="41" t="str">
-        <f t="shared" ref="E43:F43" si="11">C43</f>
-        <v/>
-      </c>
-      <c r="F43" s="131" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
+      <c r="E43" s="41"/>
+      <c r="F43" s="131"/>
       <c r="G43" s="47"/>
       <c r="H43" s="135" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I43" s="133" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K43" s="134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3335,25 +3236,19 @@
       </c>
       <c r="C44" s="46"/>
       <c r="D44" s="46"/>
-      <c r="E44" s="41" t="str">
-        <f t="shared" ref="E44:F44" si="12">C44</f>
-        <v/>
-      </c>
-      <c r="F44" s="131" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
+      <c r="E44" s="41"/>
+      <c r="F44" s="131"/>
       <c r="G44" s="47"/>
       <c r="H44" s="135" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I44" s="133" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K44" s="134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3364,25 +3259,19 @@
       </c>
       <c r="C45" s="46"/>
       <c r="D45" s="46"/>
-      <c r="E45" s="41" t="str">
-        <f t="shared" ref="E45:F45" si="13">C45</f>
-        <v/>
-      </c>
-      <c r="F45" s="131" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
+      <c r="E45" s="41"/>
+      <c r="F45" s="131"/>
       <c r="G45" s="47"/>
       <c r="H45" s="135" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I45" s="133" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K45" s="134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3393,25 +3282,19 @@
       </c>
       <c r="C46" s="46"/>
       <c r="D46" s="46"/>
-      <c r="E46" s="41" t="str">
-        <f t="shared" ref="E46:F46" si="14">C46</f>
-        <v/>
-      </c>
-      <c r="F46" s="131" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
+      <c r="E46" s="41"/>
+      <c r="F46" s="131"/>
       <c r="G46" s="47"/>
       <c r="H46" s="135" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I46" s="133" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K46" s="134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3422,24 +3305,21 @@
       </c>
       <c r="C47" s="46"/>
       <c r="D47" s="46"/>
-      <c r="E47" s="41" t="str">
-        <f t="shared" ref="E47:E54" si="15">C47</f>
-        <v/>
-      </c>
+      <c r="E47" s="41"/>
       <c r="F47" s="131" t="s">
         <v>35</v>
       </c>
       <c r="G47" s="47"/>
       <c r="H47" s="135" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I47" s="133" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K47" s="134" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3450,25 +3330,19 @@
       </c>
       <c r="C48" s="46"/>
       <c r="D48" s="46"/>
-      <c r="E48" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="F48" s="131" t="str">
-        <f t="shared" ref="F48:F54" si="16">D48</f>
-        <v/>
-      </c>
+      <c r="E48" s="41"/>
+      <c r="F48" s="131"/>
       <c r="G48" s="47"/>
       <c r="H48" s="135" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I48" s="133" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K48" s="134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3479,25 +3353,19 @@
       </c>
       <c r="C49" s="54"/>
       <c r="D49" s="41"/>
-      <c r="E49" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="F49" s="55" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
+      <c r="E49" s="41"/>
+      <c r="F49" s="55"/>
       <c r="G49" s="56"/>
       <c r="H49" s="44" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I49" s="45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K49" s="134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3508,25 +3376,19 @@
       </c>
       <c r="C50" s="54"/>
       <c r="D50" s="41"/>
-      <c r="E50" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="F50" s="55" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
+      <c r="E50" s="41"/>
+      <c r="F50" s="55"/>
       <c r="G50" s="56"/>
       <c r="H50" s="44" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I50" s="45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K50" s="134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3537,25 +3399,19 @@
       </c>
       <c r="C51" s="54"/>
       <c r="D51" s="41"/>
-      <c r="E51" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="F51" s="55" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
+      <c r="E51" s="41"/>
+      <c r="F51" s="55"/>
       <c r="G51" s="56"/>
       <c r="H51" s="44" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I51" s="45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K51" s="134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3566,25 +3422,19 @@
       </c>
       <c r="C52" s="54"/>
       <c r="D52" s="41"/>
-      <c r="E52" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="F52" s="55" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
+      <c r="E52" s="41"/>
+      <c r="F52" s="55"/>
       <c r="G52" s="56"/>
       <c r="H52" s="44" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I52" s="45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K52" s="134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3595,25 +3445,19 @@
       </c>
       <c r="C53" s="46"/>
       <c r="D53" s="46"/>
-      <c r="E53" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="F53" s="131" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
+      <c r="E53" s="41"/>
+      <c r="F53" s="131"/>
       <c r="G53" s="47"/>
       <c r="H53" s="135" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I53" s="133" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K53" s="134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3624,25 +3468,19 @@
       </c>
       <c r="C54" s="138"/>
       <c r="D54" s="138"/>
-      <c r="E54" s="81" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="F54" s="139" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
+      <c r="E54" s="81"/>
+      <c r="F54" s="139"/>
       <c r="G54" s="140"/>
       <c r="H54" s="141" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I54" s="142" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K54" s="143">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3666,10 +3504,7 @@
       <c r="D56" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="E56" s="150" t="str">
-        <f>B56</f>
-        <v/>
-      </c>
+      <c r="E56" s="150"/>
       <c r="F56" s="14"/>
       <c r="G56" s="85"/>
       <c r="H56" s="151"/>
@@ -3713,15 +3548,9 @@
         <v>33</v>
       </c>
       <c r="C59" s="154"/>
-      <c r="D59" s="155" t="str">
-        <f>D40</f>
-        <v/>
-      </c>
+      <c r="D59" s="155"/>
       <c r="E59" s="156"/>
-      <c r="F59" s="157" t="str">
-        <f>D59</f>
-        <v/>
-      </c>
+      <c r="F59" s="157"/>
       <c r="G59" s="60" t="s">
         <v>9</v>
       </c>
@@ -3736,10 +3565,7 @@
       <c r="C60" s="46"/>
       <c r="D60" s="160"/>
       <c r="E60" s="161"/>
-      <c r="F60" s="162" t="str">
-        <f>E60</f>
-        <v/>
-      </c>
+      <c r="F60" s="162"/>
       <c r="G60" s="60" t="s">
         <v>43</v>
       </c>
@@ -3754,10 +3580,7 @@
       <c r="C61" s="163"/>
       <c r="D61" s="164"/>
       <c r="E61" s="165"/>
-      <c r="F61" s="162" t="str">
-        <f>C61</f>
-        <v/>
-      </c>
+      <c r="F61" s="162"/>
       <c r="G61" s="60" t="s">
         <v>44</v>
       </c>
@@ -3784,16 +3607,10 @@
       <c r="B63" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="C63" s="166" t="str">
-        <f>D47</f>
-        <v/>
-      </c>
+      <c r="C63" s="166"/>
       <c r="D63" s="167"/>
       <c r="E63" s="167"/>
-      <c r="F63" s="168" t="str">
-        <f t="shared" ref="F63:F65" si="17">C63</f>
-        <v/>
-      </c>
+      <c r="F63" s="168"/>
       <c r="G63" s="85"/>
       <c r="H63" s="169"/>
       <c r="I63" s="170"/>
@@ -3806,10 +3623,7 @@
       <c r="C64" s="172"/>
       <c r="D64" s="173"/>
       <c r="E64" s="174"/>
-      <c r="F64" s="34" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+      <c r="F64" s="34"/>
       <c r="G64" s="85"/>
       <c r="H64" s="174"/>
       <c r="I64" s="175"/>
@@ -3822,10 +3636,7 @@
       <c r="C65" s="177"/>
       <c r="D65" s="178"/>
       <c r="E65" s="178"/>
-      <c r="F65" s="34" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+      <c r="F65" s="34"/>
       <c r="G65" s="85"/>
       <c r="H65" s="174"/>
       <c r="I65" s="175"/>
@@ -3853,10 +3664,7 @@
       <c r="C67" s="181"/>
       <c r="D67" s="182"/>
       <c r="E67" s="183"/>
-      <c r="F67" s="184" t="str">
-        <f>C67</f>
-        <v/>
-      </c>
+      <c r="F67" s="184"/>
       <c r="G67" s="85"/>
       <c r="H67" s="185"/>
       <c r="I67" s="186"/>
@@ -3882,10 +3690,7 @@
       <c r="C69" s="189"/>
       <c r="D69" s="190"/>
       <c r="E69" s="191"/>
-      <c r="F69" s="184" t="str">
-        <f t="shared" ref="F69:F72" si="18">C69</f>
-        <v/>
-      </c>
+      <c r="F69" s="184"/>
       <c r="G69" s="85" t="s">
         <v>53</v>
       </c>
@@ -3900,10 +3705,7 @@
       <c r="C70" s="195"/>
       <c r="D70" s="196"/>
       <c r="E70" s="197"/>
-      <c r="F70" s="198" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
+      <c r="F70" s="198"/>
       <c r="G70" s="85"/>
       <c r="H70" s="192"/>
       <c r="I70" s="193"/>
@@ -3916,10 +3718,7 @@
       <c r="C71" s="200"/>
       <c r="D71" s="201"/>
       <c r="E71" s="202"/>
-      <c r="F71" s="203" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
+      <c r="F71" s="203"/>
       <c r="G71" s="85"/>
       <c r="H71" s="192"/>
       <c r="I71" s="193"/>
@@ -3932,10 +3731,7 @@
       <c r="C72" s="204"/>
       <c r="D72" s="205"/>
       <c r="E72" s="206"/>
-      <c r="F72" s="207" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
+      <c r="F72" s="207"/>
       <c r="G72" s="85"/>
       <c r="H72" s="192"/>
       <c r="I72" s="193"/>
@@ -3974,10 +3770,7 @@
       <c r="C75" s="212"/>
       <c r="D75" s="213"/>
       <c r="E75" s="213"/>
-      <c r="F75" s="214" t="str">
-        <f t="shared" ref="F75:F78" si="19">C75</f>
-        <v/>
-      </c>
+      <c r="F75" s="214"/>
       <c r="G75" s="85"/>
       <c r="H75" s="158"/>
       <c r="I75" s="159"/>
@@ -3990,10 +3783,7 @@
       <c r="C76" s="103"/>
       <c r="D76" s="215"/>
       <c r="E76" s="215"/>
-      <c r="F76" s="216" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
+      <c r="F76" s="216"/>
       <c r="G76" s="85"/>
       <c r="H76" s="158"/>
       <c r="I76" s="159"/>
@@ -4006,10 +3796,7 @@
       <c r="C77" s="103"/>
       <c r="D77" s="215"/>
       <c r="E77" s="215"/>
-      <c r="F77" s="216" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
+      <c r="F77" s="216"/>
       <c r="G77" s="85"/>
       <c r="H77" s="158"/>
       <c r="I77" s="159"/>
@@ -4022,10 +3809,7 @@
       <c r="C78" s="138"/>
       <c r="D78" s="217"/>
       <c r="E78" s="217"/>
-      <c r="F78" s="218" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
+      <c r="F78" s="218"/>
       <c r="G78" s="85"/>
       <c r="H78" s="158"/>
       <c r="I78" s="159"/>
@@ -4051,10 +3835,7 @@
       <c r="C80" s="154"/>
       <c r="D80" s="221"/>
       <c r="E80" s="222"/>
-      <c r="F80" s="184" t="str">
-        <f t="shared" ref="F80:F84" si="20">C80</f>
-        <v/>
-      </c>
+      <c r="F80" s="184"/>
       <c r="G80" s="85"/>
       <c r="H80" s="223"/>
       <c r="I80" s="203"/>
@@ -4067,10 +3848,7 @@
       <c r="C81" s="225"/>
       <c r="D81" s="226"/>
       <c r="E81" s="227"/>
-      <c r="F81" s="228" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
+      <c r="F81" s="228"/>
       <c r="G81" s="60"/>
       <c r="H81" s="223"/>
       <c r="I81" s="203"/>
@@ -4083,10 +3861,7 @@
       <c r="C82" s="225"/>
       <c r="D82" s="226"/>
       <c r="E82" s="227"/>
-      <c r="F82" s="228" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
+      <c r="F82" s="228"/>
       <c r="G82" s="85"/>
       <c r="H82" s="192"/>
       <c r="I82" s="193"/>
@@ -4099,10 +3874,7 @@
       <c r="C83" s="225"/>
       <c r="D83" s="226"/>
       <c r="E83" s="227"/>
-      <c r="F83" s="228" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
+      <c r="F83" s="228"/>
       <c r="G83" s="85"/>
       <c r="H83" s="192"/>
       <c r="I83" s="193"/>
@@ -4115,10 +3887,7 @@
       <c r="C84" s="230"/>
       <c r="D84" s="231"/>
       <c r="E84" s="232"/>
-      <c r="F84" s="233" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
+      <c r="F84" s="233"/>
       <c r="G84" s="85"/>
       <c r="H84" s="192"/>
       <c r="I84" s="193"/>
@@ -4162,10 +3931,7 @@
       <c r="C87" s="239"/>
       <c r="D87" s="154"/>
       <c r="E87" s="154"/>
-      <c r="F87" s="125" t="str">
-        <f t="shared" ref="F87:F94" si="21">C87</f>
-        <v/>
-      </c>
+      <c r="F87" s="125"/>
       <c r="G87" s="60"/>
       <c r="H87" s="240"/>
       <c r="I87" s="133"/>
@@ -4178,10 +3944,7 @@
       <c r="C88" s="68"/>
       <c r="D88" s="226"/>
       <c r="E88" s="226"/>
-      <c r="F88" s="228" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
+      <c r="F88" s="228"/>
       <c r="G88" s="85"/>
       <c r="H88" s="223"/>
       <c r="I88" s="203"/>
@@ -4194,10 +3957,7 @@
       <c r="C89" s="68"/>
       <c r="D89" s="226"/>
       <c r="E89" s="226"/>
-      <c r="F89" s="228" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
+      <c r="F89" s="228"/>
       <c r="G89" s="85"/>
       <c r="H89" s="223"/>
       <c r="I89" s="203"/>
@@ -4210,10 +3970,7 @@
       <c r="C90" s="68"/>
       <c r="D90" s="215"/>
       <c r="E90" s="215"/>
-      <c r="F90" s="241" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
+      <c r="F90" s="241"/>
       <c r="G90" s="85"/>
       <c r="H90" s="223"/>
       <c r="I90" s="203"/>
@@ -4226,10 +3983,7 @@
       <c r="C91" s="242"/>
       <c r="D91" s="226"/>
       <c r="E91" s="226"/>
-      <c r="F91" s="228" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
+      <c r="F91" s="228"/>
       <c r="G91" s="85"/>
       <c r="H91" s="223"/>
       <c r="I91" s="203"/>
@@ -4242,10 +3996,7 @@
       <c r="C92" s="242"/>
       <c r="D92" s="226"/>
       <c r="E92" s="226"/>
-      <c r="F92" s="228" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
+      <c r="F92" s="228"/>
       <c r="G92" s="85"/>
       <c r="H92" s="223"/>
       <c r="I92" s="203"/>
@@ -4258,10 +4009,7 @@
       <c r="C93" s="242"/>
       <c r="D93" s="226"/>
       <c r="E93" s="226"/>
-      <c r="F93" s="228" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
+      <c r="F93" s="228"/>
       <c r="G93" s="85"/>
       <c r="H93" s="223"/>
       <c r="I93" s="203"/>
@@ -4274,10 +4022,7 @@
       <c r="C94" s="244"/>
       <c r="D94" s="245"/>
       <c r="E94" s="245"/>
-      <c r="F94" s="246" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
+      <c r="F94" s="246"/>
       <c r="G94" s="60"/>
       <c r="H94" s="223"/>
       <c r="I94" s="203"/>
@@ -4303,10 +4048,7 @@
       <c r="C96" s="123"/>
       <c r="D96" s="221"/>
       <c r="E96" s="222"/>
-      <c r="F96" s="184" t="str">
-        <f t="shared" ref="F96:F97" si="22">C96</f>
-        <v/>
-      </c>
+      <c r="F96" s="184"/>
       <c r="G96" s="85"/>
       <c r="H96" s="223"/>
       <c r="I96" s="203"/>
@@ -4319,10 +4061,7 @@
       <c r="C97" s="87"/>
       <c r="D97" s="226"/>
       <c r="E97" s="227"/>
-      <c r="F97" s="228" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
+      <c r="F97" s="228"/>
       <c r="G97" s="60"/>
       <c r="H97" s="223"/>
       <c r="I97" s="203"/>
